--- a/pruebaV2.xlsx
+++ b/pruebaV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Matemática Fundamental\Proposicion 19 aplicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02305482-1531-4A7C-97AD-FAE7ED4E70D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE8EEB0-25F4-4D6C-A2DB-40C7238982BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1727DDF4-7DA7-47F0-A43C-994623D20B20}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Supongamos que $\overline{AC} &lt; \overline{AB}$</t>
   </si>
   <si>
-    <t>Si $\overline{AB}$ es el lado mayor, deducimos que su ángulo opuesto ($ \angle  BCA$) es mayor y, por tanto, $ \angle ABC &lt; \angle BCA$ (Contradicción)</t>
-  </si>
-  <si>
     <t>{'x':0.5,'y':1,'nombre':'A'}</t>
   </si>
   <si>
@@ -128,10 +125,13 @@
     <t>{'x':0,'y':-1,'nombre':'C'}</t>
   </si>
   <si>
-    <t>Por la afirmación (9) el triángulo $ \triangle ABC$ es isóceles y, por tanto, $\angle ABC \cong \angle BCA$(Contradicción)</t>
-  </si>
-  <si>
     <t>Supongamos que $\\ \overline{AC} \cong \overline{AB}$</t>
+  </si>
+  <si>
+    <t>Por la afirmación (9) el triángulo $ \triangle ABC$ es isósceles y, por tanto, $\angle ABC \cong \angle BCA$(Contradicción)</t>
+  </si>
+  <si>
+    <t>Si $\overline{AB}$ es el lado mayor, deducimos que su ángulo opuesto $ \angle  BCA$ es mayor y, por tanto, $ \angle ABC &lt; \angle BCA$ (Contradicción)</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -652,12 +652,12 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -669,15 +669,15 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>

--- a/pruebaV2.xlsx
+++ b/pruebaV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Matemática Fundamental\Proposicion 19 aplicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE8EEB0-25F4-4D6C-A2DB-40C7238982BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E36BE0F-E921-41F1-B052-8FA2F3441992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1727DDF4-7DA7-47F0-A43C-994623D20B20}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>{'x1':-0.5, 'y1':0, 'x2':0, 'y2':-1}</t>
   </si>
   <si>
-    <t xml:space="preserve">De las afirmaciones (10) y (12) deducimos que $\overline{AC} &gt; \overline{AB}$ </t>
-  </si>
-  <si>
     <t>{'A':(0,-1), 'B':(-0.5,0), 'C':(0.5,1)}</t>
   </si>
   <si>
@@ -128,10 +125,13 @@
     <t>Supongamos que $\\ \overline{AC} \cong \overline{AB}$</t>
   </si>
   <si>
-    <t>Por la afirmación (9) el triángulo $ \triangle ABC$ es isósceles y, por tanto, $\angle ABC \cong \angle BCA$(Contradicción)</t>
-  </si>
-  <si>
     <t>Si $\overline{AB}$ es el lado mayor, deducimos que su ángulo opuesto $ \angle  BCA$ es mayor y, por tanto, $ \angle ABC &lt; \angle BCA$ (Contradicción)</t>
+  </si>
+  <si>
+    <t>Por la afirmación (8) el triángulo $ \triangle ABC$ es isósceles y, por tanto, $\angle ABC \cong \angle BCA$(Contradicción)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De las afirmaciones (9) y (11) deducimos que $\overline{AC} &gt; \overline{AB}$ </t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -710,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -721,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
